--- a/biology/Zoologie/Argiope_pulchella/Argiope_pulchella.xlsx
+++ b/biology/Zoologie/Argiope_pulchella/Argiope_pulchella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Argiope pulchella est une espèce d'araignées aranéomorphes de la famille des Araneidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argiope pulchella est une espèce d'araignées aranéomorphes de la famille des Araneidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Inde, au Pakistan, au Népal, en Birmanie, en Thaïlande, en Chine et en Indonésie[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Inde, au Pakistan, au Népal, en Birmanie, en Thaïlande, en Chine et en Indonésie,.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les femelles mesurent de 11,5 à 18 mm[2].
-L'opisthosome de l'espèce est pentagonal et légèrement plus long que large[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les femelles mesurent de 11,5 à 18 mm.
+L'opisthosome de l'espèce est pentagonal et légèrement plus long que large.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Toile</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La toile qu'elle tisse présente un stabilimentum en zigzag.
 </t>
@@ -605,10 +623,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Thorell en 1881.
-Argiope undulata[4] a été placée en synonymie par Levi en 1983[2].
+Argiope undulata a été placée en synonymie par Levi en 1983.
 			Vue ventrale de la femelle.
 			Femelle ; le stabilimentum en zigzag est visible.
 			Argyrodes flavescens, un cleptoparasite sur une toile d'Argiope pulchella.
@@ -640,7 +660,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Thorell, 1881 : « Studi sui Ragni Malesi e Papuani. III. Ragni dell'Austro Malesia e del Capo York, conservati nel Museo civico di storia naturale di Genova. » Annali del Museo Civico di Storia Naturale di Genova, vol. 17, p. 1-727 (texte intégral).</t>
         </is>
